--- a/Modules/WF/WF_BOM.xlsx
+++ b/Modules/WF/WF_BOM.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\WF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F777E9-0EAC-4EE1-8ACA-5B85B2B1ADCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="405" windowWidth="37155" windowHeight="17670"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WF" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="102">
   <si>
     <t>Qty</t>
   </si>
@@ -136,12 +155,6 @@
     <t>PWR</t>
   </si>
   <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
     <t>Pot 9mm Tall Trimmer</t>
   </si>
   <si>
@@ -305,43 +318,6 @@
   </si>
   <si>
     <t>Potentiometer Plastic</t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.com/item/1005001557138121.html</t>
-  </si>
-  <si>
-    <r>
-      <t>J2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>***</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>J1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>***</t>
-    </r>
   </si>
   <si>
     <r>
@@ -396,11 +372,23 @@
     <t>** Cut the legs of the header below P_ATN so they don't short.</t>
   </si>
   <si>
+    <t>*** Solder the plastic side of the angled header on the J3 and J4 side, and the metal on J1 and J2 side. Cut off the excess length.</t>
+  </si>
+  <si>
     <r>
-      <t>Female Header 2.54mm</t>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J4</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
@@ -412,13 +400,35 @@
     </r>
   </si>
   <si>
-    <t>*** You may omit the female headers and solder the angled headers directly to front PCB for stability. If using the female headers, remove the plastic base on headers J1 and J2 to make the board more flush with the 2hp and trim the extra leg length after soldering.</t>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>***</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -600,11 +610,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1008,14 +1018,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1053,7 +1066,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1125,7 +1138,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1298,11 +1311,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,7 +1344,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1"/>
     </row>
@@ -1343,16 +1356,16 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1363,16 +1376,16 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1383,16 +1396,16 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1403,16 +1416,16 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1423,16 +1436,16 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1443,16 +1456,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
         <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1463,16 +1476,16 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1483,16 +1496,16 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1503,16 +1516,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1520,7 +1533,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -1529,10 +1542,10 @@
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1543,16 +1556,16 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1563,16 +1576,16 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1583,16 +1596,16 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1603,16 +1616,16 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1623,16 +1636,16 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1643,16 +1656,16 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
         <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1663,16 +1676,16 @@
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
         <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1680,19 +1693,19 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1709,10 +1722,10 @@
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1723,16 +1736,16 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1740,19 +1753,19 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1760,16 +1773,16 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1777,16 +1790,16 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1794,151 +1807,109 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
         <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
         <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" t="s">
         <v>87</v>
       </c>
-      <c r="C29" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" t="s">
-        <v>95</v>
-      </c>
       <c r="F29" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>3</v>
-      </c>
-      <c r="B31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>90</v>
+      <c r="B31" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>63</v>
+      <c r="B33" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2:F10" r:id="rId1" display="https://www.aliexpress.com/item/1005002670881002.html"/>
-    <hyperlink ref="F11" r:id="rId2"/>
-    <hyperlink ref="F12" r:id="rId3"/>
-    <hyperlink ref="F13" r:id="rId4"/>
-    <hyperlink ref="F14" r:id="rId5"/>
-    <hyperlink ref="F15" r:id="rId6"/>
-    <hyperlink ref="F16" r:id="rId7"/>
-    <hyperlink ref="F18" r:id="rId8"/>
-    <hyperlink ref="F17" r:id="rId9"/>
-    <hyperlink ref="F19" r:id="rId10"/>
-    <hyperlink ref="F20" r:id="rId11"/>
-    <hyperlink ref="F21" r:id="rId12"/>
-    <hyperlink ref="F22" r:id="rId13"/>
-    <hyperlink ref="F31" r:id="rId14"/>
-    <hyperlink ref="F29" r:id="rId15"/>
-    <hyperlink ref="F30" r:id="rId16"/>
-    <hyperlink ref="F26" r:id="rId17"/>
-    <hyperlink ref="F27" r:id="rId18"/>
+    <hyperlink ref="F2:F10" r:id="rId1" display="https://www.aliexpress.com/item/1005002670881002.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F16" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F18" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F17" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F19" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F20" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F21" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F22" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F29" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F27" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F28" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/Modules/WF/WF_BOM.xlsx
+++ b/Modules/WF/WF_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\WF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F777E9-0EAC-4EE1-8ACA-5B85B2B1ADCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963206D7-64D6-4826-AA3D-CD59ED491EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="103">
   <si>
     <t>Qty</t>
   </si>
@@ -423,6 +423,9 @@
       </rPr>
       <t>***</t>
     </r>
+  </si>
+  <si>
+    <t>https://www.tme.eu/hr/en/details/zl211-40kg-s/pin-headers/connfly/ds1022-1-40ruf11/</t>
   </si>
 </sst>
 </file>
@@ -1315,7 +1318,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1784,6 +1787,9 @@
       <c r="E23" t="s">
         <v>44</v>
       </c>
+      <c r="F23" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -1801,6 +1807,9 @@
       <c r="E24" t="s">
         <v>44</v>
       </c>
+      <c r="F24" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -1817,6 +1826,9 @@
       </c>
       <c r="E25" t="s">
         <v>44</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1908,8 +1920,9 @@
     <hyperlink ref="F29" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="F27" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="F28" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F23:F25" r:id="rId17" display="https://www.tme.eu/hr/en/details/zl211-40kg-s/pin-headers/connfly/ds1022-1-40ruf11/" xr:uid="{564A2D52-8874-460F-A304-E4F89861A78E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/Modules/WF/WF_BOM.xlsx
+++ b/Modules/WF/WF_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\WF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963206D7-64D6-4826-AA3D-CD59ED491EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA662CC8-9B94-4DB3-8825-551CD483E80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="104">
   <si>
     <t>Qty</t>
   </si>
@@ -426,6 +426,9 @@
   </si>
   <si>
     <t>https://www.tme.eu/hr/en/details/zl211-40kg-s/pin-headers/connfly/ds1022-1-40ruf11/</t>
+  </si>
+  <si>
+    <t>Thonkiconn</t>
   </si>
 </sst>
 </file>
@@ -1318,7 +1321,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1756,7 +1759,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
         <v>79</v>

--- a/Modules/WF/WF_BOM.xlsx
+++ b/Modules/WF/WF_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\WF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA662CC8-9B94-4DB3-8825-551CD483E80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91676A58-AD79-44D9-AA6F-D151B2867C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,12 +161,6 @@
     <t>DO-41</t>
   </si>
   <si>
-    <t>C-5mm</t>
-  </si>
-  <si>
-    <t>E2.5-6.3</t>
-  </si>
-  <si>
     <t>Header Connector</t>
   </si>
   <si>
@@ -182,9 +176,6 @@
     <t>Rectifier Diode</t>
   </si>
   <si>
-    <t>C-5mm 5x7.2mm</t>
-  </si>
-  <si>
     <t>Quad Op Amp</t>
   </si>
   <si>
@@ -197,9 +188,6 @@
     <t>Trimmer THT</t>
   </si>
   <si>
-    <t>R-W4</t>
-  </si>
-  <si>
     <t>DIP-14 Socket</t>
   </si>
   <si>
@@ -207,15 +195,6 @@
   </si>
   <si>
     <t>B10k</t>
-  </si>
-  <si>
-    <t>Capacitor Ceramic THT</t>
-  </si>
-  <si>
-    <t>Capacitor Film THT</t>
-  </si>
-  <si>
-    <t>Capacitor Polarized THT</t>
   </si>
   <si>
     <t>Parts in itallic are on the front PCB!</t>
@@ -429,6 +408,27 @@
   </si>
   <si>
     <t>Thonkiconn</t>
+  </si>
+  <si>
+    <t>R-1/4W</t>
+  </si>
+  <si>
+    <t>C-P5mm</t>
+  </si>
+  <si>
+    <t>C-P5mm 5x7.2mm</t>
+  </si>
+  <si>
+    <t>E-P2.5mm 6.3x11.5mm</t>
+  </si>
+  <si>
+    <t>Electrolytic Capacitor THT</t>
+  </si>
+  <si>
+    <t>Film Capacitor THT</t>
+  </si>
+  <si>
+    <t>Ceramic Capacitor THT</t>
   </si>
 </sst>
 </file>
@@ -1321,13 +1321,13 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" customWidth="1"/>
     <col min="5" max="5" width="22.140625" customWidth="1"/>
@@ -1350,7 +1350,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1"/>
     </row>
@@ -1362,16 +1362,16 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1382,16 +1382,16 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1402,16 +1402,16 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1422,16 +1422,16 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1442,16 +1442,16 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1462,16 +1462,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
         <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1482,16 +1482,16 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1502,16 +1502,16 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1522,16 +1522,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1539,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -1548,10 +1548,10 @@
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1562,16 +1562,16 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1582,16 +1582,16 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1602,16 +1602,16 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1622,16 +1622,16 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1645,13 +1645,13 @@
         <v>41</v>
       </c>
       <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="E16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1662,16 +1662,16 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
         <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1682,16 +1682,16 @@
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
         <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1699,19 +1699,19 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1728,10 +1728,10 @@
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1745,13 +1745,13 @@
         <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1759,19 +1759,19 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1779,19 +1779,19 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1799,19 +1799,19 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1819,19 +1819,19 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
         <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1839,16 +1839,16 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1856,16 +1856,16 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1873,36 +1873,36 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Modules/WF/WF_BOM.xlsx
+++ b/Modules/WF/WF_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\WF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91676A58-AD79-44D9-AA6F-D151B2867C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CD9015-7796-460B-8538-D410F9EEB4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WF" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="117">
   <si>
     <t>Qty</t>
   </si>
@@ -104,9 +104,6 @@
     <t>TL074</t>
   </si>
   <si>
-    <t>J_CV, J_IN, J_OUT</t>
-  </si>
-  <si>
     <t>T_DC_A, T_DC_B</t>
   </si>
   <si>
@@ -197,9 +194,6 @@
     <t>B10k</t>
   </si>
   <si>
-    <t>Parts in itallic are on the front PCB!</t>
-  </si>
-  <si>
     <t>C8</t>
   </si>
   <si>
@@ -215,36 +209,9 @@
     <t>https://www.aliexpress.com/item/1005002670881002.html</t>
   </si>
   <si>
-    <t>https://www.tme.eu/hr/en/details/rkt6v-10k/single-turn-tht-trimmers/sr-passives/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/cm-100/mlcc-tht-capacitors/sr-passives/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/cm-100n-x7r_100/mlcc-tht-capacitors/sr-passives/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/mks2-2.2u_50-r/tht-film-capacitors/wima/mks2b042201f00ko00/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/jrg-47u_35/tht-electrolytic-capacitors/jb-capacitors/jrg1v470m02500630115000b/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/1n4001-dio/tht-universal-diodes/diotec-semiconductor/1n4001/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/2n3904bu/npn-tht-transistors/onsemi/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/2n3906bu/pnp-tht-transistors/onsemi/</t>
-  </si>
-  <si>
     <t>https://www.aliexpress.com/item/1005003256812123.html</t>
   </si>
   <si>
-    <t>https://www.tme.eu/hr/en/details/tl074acn/tht-operational-amplifiers/texas-instruments/</t>
-  </si>
-  <si>
     <t>https://www.thonk.co.uk/shop/ttpots/</t>
   </si>
   <si>
@@ -297,35 +264,6 @@
   </si>
   <si>
     <t>Potentiometer Plastic</t>
-  </si>
-  <si>
-    <r>
-      <t>P_ATN</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>**</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, P_OFS, P_VOL</t>
-    </r>
   </si>
   <si>
     <r>
@@ -354,9 +292,250 @@
     <t>*** Solder the plastic side of the angled header on the J3 and J4 side, and the metal on J1 and J2 side. Cut off the excess length.</t>
   </si>
   <si>
+    <t>Thonkiconn</t>
+  </si>
+  <si>
+    <t>R-1/4W</t>
+  </si>
+  <si>
+    <t>C-P5mm</t>
+  </si>
+  <si>
+    <t>C-P5mm 5x7.2mm</t>
+  </si>
+  <si>
+    <t>E-P2.5mm 6.3x11.5mm</t>
+  </si>
+  <si>
+    <t>Electrolytic Capacitor THT</t>
+  </si>
+  <si>
+    <t>Film Capacitor THT</t>
+  </si>
+  <si>
+    <t>Ceramic Capacitor THT</t>
+  </si>
+  <si>
+    <t>Avalon Harmonics WF</t>
+  </si>
+  <si>
+    <t>Alt Link</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/rkt6v-10k/single-turn-tht-trimmers/sr-passives/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/cm-100/mlcc-tht-capacitors/sr-passives/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/cm-100n-x7r_100/mlcc-tht-capacitors/sr-passives/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/mks2-2.2u_50-r/tht-film-capacitors/wima/mks2b042201f00ko00/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/jrg-47u_35/tht-electrolytic-capacitors/jb-capacitors/jrg1v470m02500630115000b/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/1n4001-dio/tht-universal-diodes/diotec-semiconductor/1n4001/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/2n3906bu/pnp-tht-transistors/onsemi/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/2n3904bu/npn-tht-transistors/onsemi/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/tl074acn/tht-operational-amplifiers/texas-instruments/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/zl211-40kg-s/pin-headers/connfly/ds1022-1-40ruf11/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p046/73P0034/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p050/73P0038/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/vishay/wirewound-resistors/mba02040c1202fct00/14E595/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/vishay/wirewound-resistors/mba02040c1502fct00/14E605/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p051/73P0039/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p053/73P0041/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p054/73P0042/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/vishay/wirewound-resistors/mba02040c1803fct00/14E735/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/vishay/wirewound-resistors/mba02040c2003fct00/14E740/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/icvt-14p/standard-dip-sockets/connfly/ds1009-14at1nx-0a2/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Parts  with underline are on the front PCB!</t>
+  </si>
+  <si>
     <r>
       <rPr>
-        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P_ATN</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P_OFS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P_VOL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_CV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_IN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_OUT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>***</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -372,70 +551,17 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
       <t>***</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>***</t>
-    </r>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/zl211-40kg-s/pin-headers/connfly/ds1022-1-40ruf11/</t>
-  </si>
-  <si>
-    <t>Thonkiconn</t>
-  </si>
-  <si>
-    <t>R-1/4W</t>
-  </si>
-  <si>
-    <t>C-P5mm</t>
-  </si>
-  <si>
-    <t>C-P5mm 5x7.2mm</t>
-  </si>
-  <si>
-    <t>E-P2.5mm 6.3x11.5mm</t>
-  </si>
-  <si>
-    <t>Electrolytic Capacitor THT</t>
-  </si>
-  <si>
-    <t>Film Capacitor THT</t>
-  </si>
-  <si>
-    <t>Ceramic Capacitor THT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,15 +707,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -616,9 +733,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -964,14 +1097,16 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1318,10 +1453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,599 +1468,698 @@
     <col min="5" max="5" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" t="s">
         <v>53</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C21" t="s">
         <v>25</v>
       </c>
-      <c r="E20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>88</v>
+      <c r="D21" t="s">
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" t="s">
-        <v>94</v>
+        <v>61</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="E23" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" t="s">
-        <v>93</v>
+        <v>63</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="J29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>3</v>
-      </c>
-      <c r="B29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E29" t="s">
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2:F10" r:id="rId1" display="https://www.aliexpress.com/item/1005002670881002.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F16" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F18" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F17" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F19" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F20" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F21" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F22" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F29" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F27" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F28" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F23:F25" r:id="rId17" display="https://www.tme.eu/hr/en/details/zl211-40kg-s/pin-headers/connfly/ds1022-1-40ruf11/" xr:uid="{564A2D52-8874-460F-A304-E4F89861A78E}"/>
+    <hyperlink ref="J3:J11" r:id="rId1" display="https://www.aliexpress.com/item/1005002670881002.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F15" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F17" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F19" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F18" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J20" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F21" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F22" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F23" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F30" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F28" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F29" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F24:F26" r:id="rId17" display="https://www.tme.eu/hr/en/details/zl211-40kg-s/pin-headers/connfly/ds1022-1-40ruf11/" xr:uid="{564A2D52-8874-460F-A304-E4F89861A78E}"/>
+    <hyperlink ref="F24" r:id="rId18" xr:uid="{2C4CAA6B-8E09-4535-952E-F17E97348B39}"/>
+    <hyperlink ref="F25" r:id="rId19" xr:uid="{888EC6AF-9993-451F-BA80-D55DBB11E481}"/>
+    <hyperlink ref="F26" r:id="rId20" xr:uid="{6FB4E357-A487-4449-A1B3-F4548852D8DB}"/>
+    <hyperlink ref="F3" r:id="rId21" xr:uid="{8901D116-9012-4D3A-ABF7-D179B26B85D1}"/>
+    <hyperlink ref="F4" r:id="rId22" xr:uid="{D586E3B9-035C-45F6-AC6D-C881FAED7847}"/>
+    <hyperlink ref="J5" r:id="rId23" xr:uid="{451E279F-07F2-4DEF-8ED1-12122DA2BF0B}"/>
+    <hyperlink ref="J6" r:id="rId24" xr:uid="{CDFCF192-71FB-420C-9F00-BC64F79EF165}"/>
+    <hyperlink ref="F7" r:id="rId25" xr:uid="{0E32C874-E18F-4C11-857E-7848A894E788}"/>
+    <hyperlink ref="F8" r:id="rId26" xr:uid="{B72391F5-B8C8-4CA2-9902-5F31C9021A49}"/>
+    <hyperlink ref="F9" r:id="rId27" xr:uid="{5456E219-423C-47B1-BE36-20268F0D9FB1}"/>
+    <hyperlink ref="J10" r:id="rId28" xr:uid="{8AA85E49-D000-42A4-9DEC-A6CC11A0CAD6}"/>
+    <hyperlink ref="J11" r:id="rId29" xr:uid="{81998E97-214A-44BC-B336-C12010548454}"/>
+    <hyperlink ref="F20" r:id="rId30" xr:uid="{1562FF91-358C-45DE-8371-E2F58F9E41C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
--- a/Modules/WF/WF_BOM.xlsx
+++ b/Modules/WF/WF_BOM.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\WF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CD9015-7796-460B-8538-D410F9EEB4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E555D1-AA09-4270-97F1-3CCFD2ABB7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="WF" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1099,14 +1099,13 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1944,7 +1943,7 @@
       <c r="C22" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" t="s">
         <v>113</v>
       </c>
       <c r="E22" t="s">
@@ -1964,7 +1963,7 @@
       <c r="C23" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" t="s">
         <v>114</v>
       </c>
       <c r="E23" t="s">
@@ -1987,7 +1986,7 @@
       <c r="C24" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" t="s">
         <v>115</v>
       </c>
       <c r="E24" t="s">
@@ -2010,7 +2009,7 @@
       <c r="C25" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" t="s">
         <v>116</v>
       </c>
       <c r="E25" t="s">
